--- a/2000-2023年各省份城镇化水平.xlsx
+++ b/2000-2023年各省份城镇化水平.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21550" windowHeight="10080" activeTab="2"/>
+    <workbookView windowWidth="29100" windowHeight="13540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="面板数据" sheetId="1" r:id="rId1"/>
     <sheet name="数据来源" sheetId="2" r:id="rId2"/>
     <sheet name="原始版本" sheetId="3" r:id="rId3"/>
+    <sheet name="备注" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">面板数据!$A$1:$D$745</definedName>
@@ -189,7 +190,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,6 +584,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
@@ -591,12 +608,6 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
@@ -760,12 +771,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1249,25 +1260,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1276,7 +1269,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1657,17 +1668,17 @@
       <selection activeCell="H351" sqref="H351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2545454545455" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="7.12727272727273" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.25454545454545" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.37272727272727" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="13" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="14" customWidth="1"/>
-    <col min="5" max="6" width="10.2545454545455" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="10.2545454545455" style="16" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="10.25" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="17" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1680,8 +1691,8 @@
       <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="19">
@@ -1696,25 +1707,25 @@
       <c r="D2" s="14">
         <v>77.54</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="19">
@@ -1729,25 +1740,25 @@
       <c r="D3" s="14">
         <v>78.06</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="19">
@@ -1762,25 +1773,25 @@
       <c r="D4" s="14">
         <v>78.56</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="19">
@@ -1795,25 +1806,25 @@
       <c r="D5" s="14">
         <v>79.07</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="19">
@@ -1828,25 +1839,25 @@
       <c r="D6" s="14">
         <v>79.52</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="19">
@@ -1861,25 +1872,25 @@
       <c r="D7" s="14">
         <v>83.62</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="19">
@@ -1894,25 +1905,25 @@
       <c r="D8" s="14">
         <v>84.33</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="19">
@@ -1927,25 +1938,25 @@
       <c r="D9" s="14">
         <v>84.5</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="19">
@@ -1960,25 +1971,25 @@
       <c r="D10" s="14">
         <v>84.9</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="19">
@@ -1993,25 +2004,25 @@
       <c r="D11" s="14">
         <v>85</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="19">
@@ -2026,25 +2037,25 @@
       <c r="D12" s="14">
         <v>85.96</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="19">
@@ -2059,25 +2070,25 @@
       <c r="D13" s="14">
         <v>86.2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="19">
@@ -2092,25 +2103,25 @@
       <c r="D14" s="14">
         <v>86.29</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="19">
@@ -2125,25 +2136,25 @@
       <c r="D15" s="14">
         <v>86.39</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="19">
@@ -2158,25 +2169,25 @@
       <c r="D16" s="14">
         <v>86.5</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="19">
@@ -2191,25 +2202,25 @@
       <c r="D17" s="14">
         <v>86.71</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="19">
@@ -2224,25 +2235,25 @@
       <c r="D18" s="14">
         <v>86.76</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="19">
@@ -2257,25 +2268,25 @@
       <c r="D19" s="14">
         <v>86.93</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="19">
@@ -2290,25 +2301,25 @@
       <c r="D20" s="14">
         <v>87.09</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="19">
@@ -2323,25 +2334,25 @@
       <c r="D21" s="14">
         <v>87.35</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" s="12" customFormat="1" spans="1:23">
       <c r="A22" s="19">
@@ -2356,25 +2367,25 @@
       <c r="D22" s="14">
         <v>87.55</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="19">
@@ -2389,25 +2400,25 @@
       <c r="D23" s="14">
         <v>87.5</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="19">
@@ -2422,25 +2433,25 @@
       <c r="D24" s="14">
         <v>87.6</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="19">
@@ -2455,25 +2466,25 @@
       <c r="D25" s="14">
         <v>87.6250428653015</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="19">
@@ -2488,25 +2499,25 @@
       <c r="D26" s="14">
         <v>72</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="19">
@@ -2521,25 +2532,25 @@
       <c r="D27" s="14">
         <v>72.622</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="19">
@@ -2554,25 +2565,25 @@
       <c r="D28" s="14">
         <v>73.244</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="19">
@@ -2587,25 +2598,25 @@
       <c r="D29" s="14">
         <v>73.866</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="19">
@@ -2620,25 +2631,25 @@
       <c r="D30" s="14">
         <v>74.488</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="19">
@@ -2653,25 +2664,25 @@
       <c r="D31" s="14">
         <v>75.11</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="19">
@@ -2686,25 +2697,25 @@
       <c r="D32" s="14">
         <v>75.73</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="19">
@@ -2719,25 +2730,25 @@
       <c r="D33" s="14">
         <v>76.31</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="19">
@@ -12732,7 +12743,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
   </cols>
@@ -12758,93 +12769,93 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="topRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="6" width="12.6272727272727" style="1"/>
-    <col min="24" max="24" width="12.6272727272727" style="1"/>
+    <col min="2" max="6" width="12.625" style="1"/>
+    <col min="24" max="24" width="12.625" style="1"/>
     <col min="25" max="25" width="9" style="1"/>
-    <col min="26" max="27" width="12.8181818181818"/>
+    <col min="26" max="27" width="12.8173076923077"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27">
-      <c r="B1" s="2">
+      <c r="B1" s="5">
         <v>2000</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="5">
         <v>2001</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="5">
         <v>2002</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="5">
         <v>2003</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="5">
         <v>2004</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="5">
         <v>2022</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="5">
         <v>2023</v>
       </c>
       <c r="Z1" t="s">
@@ -12855,76 +12866,76 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>77.54</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>78.06</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>78.56</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>79.07</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>79.52</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>83.62</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>84.33</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>84.5</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>84.9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>85</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>85.96</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="6">
         <v>86.2</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="6">
         <v>86.29</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="6">
         <v>86.39</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="6">
         <v>86.5</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="6">
         <v>86.71</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="6">
         <v>86.76</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="6">
         <v>86.93</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="6">
         <v>87.09</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="6">
         <v>87.35</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="6">
         <v>87.55</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="6">
         <v>87.5</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Y2" s="11">
@@ -12941,83 +12952,83 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>72</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <f>(G3-B3)/5+B3</f>
         <v>72.622</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <f>C3-B3+C3</f>
         <v>73.244</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <f>D3-C3+D3</f>
         <v>73.866</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <f>E3-D3+E3</f>
         <v>74.488</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>75.11</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>75.73</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>76.31</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>77.23</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>78.01</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>79.55</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>80.43</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>81.55</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="6">
         <v>82.29</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="6">
         <v>82.55</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="6">
         <v>82.88</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="6">
         <v>83.27</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="6">
         <v>83.57</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="6">
         <v>83.95</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="6">
         <v>84.31</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="6">
         <v>84.7</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="6">
         <v>84.88</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Z3">
@@ -13030,79 +13041,79 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>26.09</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>28.65</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>32.8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>33.52</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>35.83</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>37.69</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>38.77</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>40.25</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>41.9</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>43.74</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>44.5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="6">
         <v>45.59</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="6">
         <v>46.6</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="6">
         <v>48.02</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="6">
         <v>49.36</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="6">
         <v>51.67</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="6">
         <v>53.87</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="6">
         <v>55.74</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="6">
         <v>57.33</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="6">
         <v>58.77</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="6">
         <v>60.07</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="6">
         <v>61.14</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Z4">
@@ -13115,83 +13126,83 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>34.9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <f>(G5-B5)/5+B5</f>
         <v>36.342</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <f>C5-B5+C5</f>
         <v>37.784</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <f>D5-C5+D5</f>
         <v>39.226</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <f>E5-D5+E5</f>
         <v>40.668</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>42.11</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>43.01</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>44.03</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>45.11</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>45.99</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="6">
         <v>48.05</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="6">
         <v>49.79</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="6">
         <v>51.32</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="6">
         <v>52.88</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="6">
         <v>54.3</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="6">
         <v>55.87</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="6">
         <v>57.27</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="6">
         <v>58.59</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="6">
         <v>59.85</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="6">
         <v>61.29</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="6">
         <v>62.53</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="6">
         <v>63.42</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Z5">
@@ -13204,79 +13215,79 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>42.2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>43.47</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>43.96</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>44.62</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>45.7</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>47.2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>48.64</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>50.15</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>51.71</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>53.4</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>55.5</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>57.04</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="6">
         <v>58.42</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="6">
         <v>59.82</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="6">
         <v>60.97</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="6">
         <v>62.09</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="6">
         <v>63.4</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="6">
         <v>64.6</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="6">
         <v>65.51</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="6">
         <v>66.46</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="6">
         <v>67.48</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="6">
         <v>68.21</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Z6">
@@ -13289,76 +13300,76 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>54.24</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>45.73</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>46.25</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>46.65</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>47.33</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>58.7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>58.99</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>59.2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>60.05</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>60.35</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>62.1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>64.05</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="6">
         <v>65.65</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="6">
         <v>66.45</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="6">
         <v>67.05</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="6">
         <v>68.05</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="6">
         <v>68.87</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="6">
         <v>69.49</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="6">
         <v>70.26</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="6">
         <v>71.21</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="6">
         <v>72.14</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="6">
         <v>72.81</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="7">
         <f>3064/4197*100</f>
         <v>73.004527043126</v>
       </c>
@@ -13376,76 +13387,76 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>49.66</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>49.8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>50.89</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>51.76</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>48.6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>52.52</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>52.97</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>53.16</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>53.21</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>53.32</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>53.35</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>53.4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="6">
         <v>54.54</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="6">
         <v>55.74</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="6">
         <v>56.81</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="6">
         <v>57.64</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="6">
         <v>58.75</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="6">
         <v>59.71</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="6">
         <v>60.85</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="6">
         <v>61.63</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="6">
         <v>62.64</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="6">
         <v>63.36</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Y8" s="11">
@@ -13462,76 +13473,76 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>51.94</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>52.38</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>52.57</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>52.59</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>52.78</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>53.1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>53.5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>53.9</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>55.4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>55.5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>55.66</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>56.49</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="6">
         <v>56.88</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="6">
         <v>58.04</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="6">
         <v>59.22</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="6">
         <v>60.47</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="6">
         <v>61.09</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="6">
         <v>61.9</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="6">
         <v>63.46</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="6">
         <v>64.62</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="6">
         <v>65.61</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="6">
         <v>65.69</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Y9" s="11">
@@ -13548,77 +13559,77 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>88.31</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <f>(G10-B10)/5+B10</f>
         <v>88.466</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <f>0.156+C10</f>
         <v>88.622</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="9">
         <f>0.156+D10</f>
         <v>88.778</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <f>0.156+E10</f>
         <v>88.934</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>89.09</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>88.7</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>88.7</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>88.6</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>88.6</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>89.3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>89.3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="6">
         <v>89.3</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="6">
         <v>89.6</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="6">
         <v>89.3</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="6">
         <v>88.53</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="6">
         <v>89</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="6">
         <v>89.1</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="6">
         <v>89.13</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="6">
         <v>89.22</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="6">
         <v>89.3</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="6">
         <v>89.3</v>
       </c>
       <c r="X10" s="11">
@@ -13639,79 +13650,79 @@
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="7">
         <v>41.5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>42.58</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>44.55</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>46.44</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>47.6</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>50.5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>51.9</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>53.2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>54.3</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>55.6</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>60.58</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="6">
         <v>62.01</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="6">
         <v>63.01</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="6">
         <v>64.39</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="6">
         <v>65.7</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="6">
         <v>67.49</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="6">
         <v>68.93</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="6">
         <v>70.18</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="6">
         <v>71.19</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="6">
         <v>72.47</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="6">
         <v>73.44</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="6">
         <v>73.94</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Z11">
@@ -13724,79 +13735,79 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>48.7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>50.56</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>51.41</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>51.98</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>52.67</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>56.02</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>56.5</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>57.2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>57.6</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>57.9</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>61.62</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>62.29</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="6">
         <v>62.91</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="6">
         <v>63.94</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="6">
         <v>64.96</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="6">
         <v>66.32</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="6">
         <v>67.72</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="6">
         <v>68.91</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="6">
         <v>70.02</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="6">
         <v>71.58</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="6">
         <v>72.17</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="6">
         <v>72.66</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Y12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Z12">
@@ -13809,79 +13820,79 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>28</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>29.3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>30.7</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>32</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>33.5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>35.5</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>37.1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>38.7</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="6">
         <v>40.5</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
         <v>42.1</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="6">
         <v>43.01</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="6">
         <v>44.8</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="6">
         <v>46.3</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="6">
         <v>47.87</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="6">
         <v>49.31</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="6">
         <v>50.97</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="6">
         <v>52.62</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="6">
         <v>54.29</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="6">
         <v>55.65</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="6">
         <v>57.02</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="6">
         <v>58.33</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="6">
         <v>59.39</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Y13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Z13">
@@ -13894,79 +13905,79 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="7">
         <v>41.96</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>42.44</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>44.45</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>44.92</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>45.76</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>49.4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>50.4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>51.4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>53</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <v>55.1</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="6">
         <v>57.1</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="6">
         <v>58.11</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="6">
         <v>59.32</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="6">
         <v>60.8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="6">
         <v>61.99</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="6">
         <v>63.22</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="6">
         <v>64.39</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="6">
         <v>65.78</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="6">
         <v>66.98</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="6">
         <v>67.87</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="6">
         <v>68.75</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="6">
         <v>69.7</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Z14">
@@ -13979,76 +13990,76 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>27.69</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>30.41</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <v>32.2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="7">
         <v>34.02</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="7">
         <v>35.58</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>37</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>38.68</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>39.8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="6">
         <v>41.36</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <v>43.18</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="6">
         <v>44.06</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="6">
         <v>45.75</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="6">
         <v>47.39</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="6">
         <v>49.04</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="6">
         <v>50.55</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="6">
         <v>52.3</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="6">
         <v>53.99</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="6">
         <v>55.7</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="6">
         <v>57.34</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="6">
         <v>59.07</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="6">
         <v>60.44</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="6">
         <v>61.46</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y15" s="11">
@@ -14065,83 +14076,83 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>38</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="9">
         <f t="shared" ref="C16:C20" si="4">(G16-B16)/5+B16</f>
         <v>39.4</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="9">
         <f>C16-B16+C16</f>
         <v>40.8</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <f>D16-C16+D16</f>
         <v>42.2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="9">
         <f>E16-D16+E16</f>
         <v>43.6</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>45</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>46.1</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>46.75</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="6">
         <v>47.6</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="6">
         <v>48.32</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="6">
         <v>49.7</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="6">
         <v>50.86</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="6">
         <v>52.03</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="6">
         <v>53.46</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="6">
         <v>54.77</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="6">
         <v>56.97</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="6">
         <v>59.13</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="6">
         <v>60.79</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="6">
         <v>61.46</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="6">
         <v>61.86</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="6">
         <v>63.05</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="6">
         <v>63.94</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Z16">
@@ -14154,76 +14165,76 @@
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>23.2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>24.43</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="7">
         <v>25.8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="7">
         <v>27.21</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="7">
         <v>28.91</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>30.65</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>32.47</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="6">
         <v>34.34</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="6">
         <v>36.03</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="6">
         <v>37.7</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="6">
         <v>38.5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="6">
         <v>40.47</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="6">
         <v>41.99</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="6">
         <v>43.6</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="6">
         <v>45.05</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="6">
         <v>47.02</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="6">
         <v>48.78</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="6">
         <v>50.56</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="6">
         <v>52.24</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="6">
         <v>54.01</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="6">
         <v>55.43</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="6">
         <v>56.45</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="Y17" s="11">
@@ -14240,80 +14251,80 @@
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>40.5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="9">
         <f t="shared" si="4"/>
         <v>41.04</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="9">
         <f t="shared" ref="D18:D24" si="5">C18-B18+C18</f>
         <v>41.58</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="9">
         <f t="shared" ref="E18:E24" si="6">D18-C18+D18</f>
         <v>42.12</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="9">
         <f t="shared" ref="F18:F24" si="7">E18-D18+E18</f>
         <v>42.66</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>43.2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>43.8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <v>44.3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="6">
         <v>45.2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="6">
         <v>46</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="6">
         <v>49.7</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="6">
         <v>51.78</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="6">
         <v>53.23</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="6">
         <v>54.51</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="6">
         <v>55.73</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="6">
         <v>57.18</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="6">
         <v>58.57</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="6">
         <v>59.88</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="6">
         <v>61</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="6">
         <v>61.83</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="6">
         <v>62.89</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="6">
         <v>64.09</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Y18" s="11">
@@ -14330,79 +14341,79 @@
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="7">
         <v>29.75</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>30.8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <v>32</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="7">
         <v>33.5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>35.5</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>37</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>38.71</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>40.45</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="6">
         <v>42.15</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="6">
         <v>43.2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="6">
         <v>43.3</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="6">
         <v>44.97</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="6">
         <v>46.22</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="6">
         <v>47.63</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="6">
         <v>48.98</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="6">
         <v>50.79</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="6">
         <v>52.7</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="6">
         <v>54.62</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="6">
         <v>56.09</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="6">
         <v>57.45</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="6">
         <v>58.76</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="6">
         <v>59.71</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="X19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="Y19" s="7" t="s">
         <v>81</v>
       </c>
       <c r="Z19">
@@ -14415,80 +14426,80 @@
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="7">
         <v>55</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <f t="shared" si="4"/>
         <v>56.136</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="9">
         <f>1.136+C20</f>
         <v>57.272</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="9">
         <f>1.136+D20</f>
         <v>58.408</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="9">
         <f>1.136+E20</f>
         <v>59.544</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>60.68</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>63</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="6">
         <v>63.14</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="6">
         <v>63.37</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="6">
         <v>63.4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="6">
         <v>66.18</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="6">
         <v>66.57</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="6">
         <v>67.15</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="6">
         <v>68.09</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="6">
         <v>68.62</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="6">
         <v>69.51</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="6">
         <v>70.15</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="6">
         <v>70.74</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="6">
         <v>71.81</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="6">
         <v>72.65</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="6">
         <v>74.15</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="6">
         <v>74.63</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="7" t="s">
         <v>82</v>
       </c>
       <c r="Y20" s="11">
@@ -14505,76 +14516,76 @@
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="10">
         <v>26.6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="10">
         <v>28.2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="10">
         <v>28.3</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="10">
         <v>29.05</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="10">
         <v>31.7</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="6">
         <v>33.62</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
         <v>34.64</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="6">
         <v>36.24</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="6">
         <v>38.16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="6">
         <v>39.2</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="6">
         <v>40</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="6">
         <v>41.9</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="6">
         <v>43.48</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="6">
         <v>45.11</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="6">
         <v>46.54</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="6">
         <v>47.99</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="6">
         <v>49.24</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="6">
         <v>50.59</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="6">
         <v>51.82</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="6">
         <v>52.98</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="6">
         <v>54.2</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="6">
         <v>55.08</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="X21" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Y21" s="11">
@@ -14591,83 +14602,83 @@
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="7">
         <v>40.7</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="9">
         <f t="shared" ref="C22:C24" si="9">(G22-B22)/5+B22</f>
         <v>41.6</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="9">
         <f t="shared" si="5"/>
         <v>42.5</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="9">
         <f t="shared" si="6"/>
         <v>43.4</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="9">
         <f t="shared" si="7"/>
         <v>44.3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="6">
         <v>45.2</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="6">
         <v>46.1</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="6">
         <v>47.2</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="6">
         <v>48</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="6">
         <v>49.13</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="6">
         <v>49.8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="6">
         <v>50.34</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="6">
         <v>51.02</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="6">
         <v>52.28</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="6">
         <v>53.3</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="6">
         <v>54.91</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="6">
         <v>56.7</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="6">
         <v>58.04</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="6">
         <v>59.13</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="6">
         <v>59.37</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="6">
         <v>60.27</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="6">
         <v>60.97</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" s="7" t="s">
         <v>85</v>
       </c>
       <c r="Z22">
@@ -14680,83 +14691,83 @@
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="7">
         <v>33.1</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
         <f t="shared" si="9"/>
         <v>35.52</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="9">
         <f t="shared" si="5"/>
         <v>37.94</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="9">
         <f t="shared" si="6"/>
         <v>40.36</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <f t="shared" si="7"/>
         <v>42.78</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="6">
         <v>45.2</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
         <v>46.7</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="6">
         <v>48.3</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="6">
         <v>49.99</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="6">
         <v>51.59</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="6">
         <v>53.02</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="6">
         <v>54.98</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="6">
         <v>56.64</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="6">
         <v>58.29</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="6">
         <v>59.74</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="6">
         <v>61.47</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="6">
         <v>63.33</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="6">
         <v>65</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="6">
         <v>66.61</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="6">
         <v>68.24</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="6">
         <v>69.46</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="6">
         <v>70.32</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="X23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Y23" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Z23">
@@ -14769,83 +14780,83 @@
       </c>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="7">
         <v>26.7</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="9">
         <f t="shared" si="9"/>
         <v>27.96</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="9">
         <f t="shared" si="5"/>
         <v>29.22</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="9">
         <f t="shared" si="6"/>
         <v>30.48</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="9">
         <f t="shared" si="7"/>
         <v>31.74</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="6">
         <v>33</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
         <v>34.3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="6">
         <v>35.6</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="6">
         <v>37.4</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="6">
         <v>38.7</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="6">
         <v>40.18</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="6">
         <v>41.85</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="6">
         <v>43.35</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="6">
         <v>44.96</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="6">
         <v>46.51</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="6">
         <v>48.27</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="6">
         <v>50</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="6">
         <v>51.78</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="6">
         <v>53.5</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="6">
         <v>55.36</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="6">
         <v>56.73</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="6">
         <v>57.82</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="X24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="Y24" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Z24">
@@ -14858,76 +14869,76 @@
       </c>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>23.87</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>23.96</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="7">
         <v>24.29</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="7">
         <v>24.77</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="7">
         <v>26.28</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="6">
         <v>26.87</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>27.46</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="6">
         <v>28.24</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="6">
         <v>29.11</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="6">
         <v>29.89</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="6">
         <v>33.81</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="6">
         <v>35.03</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="6">
         <v>36.3</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="6">
         <v>37.89</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="6">
         <v>40.24</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="6">
         <v>42.96</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="6">
         <v>45.56</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="6">
         <v>47.76</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="6">
         <v>49.54</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="6">
         <v>51.48</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="6">
         <v>53.15</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="6">
         <v>54.33</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="X25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Y25" s="11">
@@ -14944,76 +14955,76 @@
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="7">
         <v>23.36</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>24.86</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="7">
         <v>26.01</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="7">
         <v>26.6</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="7">
         <v>28.1</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <v>29.5</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
         <v>30.5</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="6">
         <v>31.6</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="6">
         <v>33</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="6">
         <v>34</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="6">
         <v>34.7</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="6">
         <v>36.57</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="6">
         <v>38.47</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="6">
         <v>39.99</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="6">
         <v>41.21</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="6">
         <v>42.93</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="6">
         <v>44.64</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="6">
         <v>46.29</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="6">
         <v>47.44</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="6">
         <v>48.67</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="6">
         <v>50.05</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="6">
         <v>51.05</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="X26" s="7" t="s">
         <v>91</v>
       </c>
       <c r="Y26" s="11">
@@ -15030,76 +15041,76 @@
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="7">
         <v>19.3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="7">
         <v>19.64</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="7">
         <v>19.8</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="7">
         <v>20.21</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="7">
         <v>20.52</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="6">
         <v>20.85</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>21.13</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="6">
         <v>21.5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="6">
         <v>21.9</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="6">
         <v>22.3</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="6">
         <v>22.67</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="6">
         <v>22.81</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="6">
         <v>22.87</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="6">
         <v>23.93</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="6">
         <v>26.23</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="6">
         <v>28.87</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="6">
         <v>31.57</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="6">
         <v>33.38</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="6">
         <v>33.8</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="6">
         <v>34.51</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="6">
         <v>35.73</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="6">
         <v>36.61</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="X27" s="7" t="s">
         <v>92</v>
       </c>
       <c r="Y27" s="11">
@@ -15116,73 +15127,73 @@
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="7">
         <v>32.27</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="7">
         <v>33.62</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="7">
         <v>34.63</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="7">
         <v>35.54</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="7">
         <v>36.35</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="6">
         <v>37.23</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>39.12</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="6">
         <v>40.62</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="6">
         <v>42.1</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="6">
         <v>43.5</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="6">
         <v>45.76</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="6">
         <v>47.35</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="6">
         <v>49.71</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="6">
         <v>51.57</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="6">
         <v>53.01</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="6">
         <v>54.74</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="6">
         <v>56.39</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="6">
         <v>58.07</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="6">
         <v>59.65</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="6">
         <v>61.28</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="6">
         <v>62.66</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="6">
         <v>63.63</v>
       </c>
       <c r="X28" s="11">
@@ -15203,79 +15214,79 @@
       </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="7">
         <v>24.41</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="7">
         <v>25.02</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="7">
         <v>26.59</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="7">
         <v>28.1</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="7">
         <v>29.49</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="6">
         <v>30.02</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
         <v>31.09</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="6">
         <v>32.25</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="6">
         <v>33.56</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="6">
         <v>34.89</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="6">
         <v>36.12</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="6">
         <v>37.25</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="6">
         <v>38.78</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="6">
         <v>40.5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="6">
         <v>42.28</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="6">
         <v>44.24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="6">
         <v>46.07</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="6">
         <v>48.12</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="6">
         <v>49.69</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="6">
         <v>50.7</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="6">
         <v>52.23</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="6">
         <v>53.33</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="X29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="Y29" s="7" t="s">
         <v>94</v>
       </c>
       <c r="Z29">
@@ -15288,79 +15299,79 @@
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="7">
         <v>34.76</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>36.32</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="7">
         <v>37.68</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="7">
         <v>38.16</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="7">
         <v>38.5</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="6">
         <v>39.25</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>39.26</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="6">
         <v>40.07</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="6">
         <v>40.86</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="6">
         <v>41.9</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="6">
         <v>44.72</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="6">
         <v>46.53</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="6">
         <v>47.85</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="6">
         <v>49.29</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="6">
         <v>50.84</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="6">
         <v>51.67</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="6">
         <v>53.55</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="6">
         <v>55.45</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="6">
         <v>57.27</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="6">
         <v>58.78</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="6">
         <v>60.08</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="6">
         <v>61.02</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="X30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="Y30" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Z30">
@@ -15373,76 +15384,76 @@
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="7">
         <v>32.56</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="7">
         <v>33.33</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="7">
         <v>34.17</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="7">
         <v>36.94</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="7">
         <v>40.58</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="6">
         <v>42.28</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>43</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="6">
         <v>44.02</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="6">
         <v>44.98</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="6">
         <v>46.1</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="6">
         <v>47.9</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="6">
         <v>50.2</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="6">
         <v>51.15</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="6">
         <v>52.84</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="6">
         <v>54.82</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="6">
         <v>56.98</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="6">
         <v>58.74</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="6">
         <v>60.95</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="6">
         <v>62.15</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="6">
         <v>63.63</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="6">
         <v>64.96</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="6">
         <v>66.04</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="X31" s="7" t="s">
         <v>97</v>
       </c>
       <c r="Y31" s="11">
@@ -15459,76 +15470,76 @@
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="7">
         <v>33.76</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="7">
         <v>33.75</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="7">
         <v>33.84</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="7">
         <v>34.39</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="7">
         <v>35.16</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="6">
         <v>37.15</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
         <v>37.94</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="6">
         <v>39.15</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="6">
         <v>39.64</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="6">
         <v>39.85</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="6">
         <v>43.01</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="6">
         <v>43.73</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="6">
         <v>44.22</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="6">
         <v>44.94</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="6">
         <v>46.79</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="6">
         <v>48.78</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="6">
         <v>50.42</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="6">
         <v>51.9</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="6">
         <v>54.01</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="6">
         <v>55.51</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="6">
         <v>56.53</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="6">
         <v>57.26</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="X32" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Y32" s="11">
@@ -15544,99 +15555,282 @@
         <v>0.011957971122934</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B2" s="3">
         <v>1264</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C2" s="3">
         <v>1350</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D2" s="3">
         <v>1365</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E2" s="3">
         <v>1411</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F2" s="3">
         <v>1550</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
         <v>4750</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C3" s="3">
         <v>4788</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D3" s="3">
         <v>4822</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E3" s="3">
         <v>4857</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F3" s="3">
         <v>4889</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9">
-        <f t="shared" ref="B36:F36" si="10">B34/B35*100</f>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:F4" si="0">B2/B3*100</f>
         <v>26.6105263157895</v>
       </c>
-      <c r="C36" s="9">
-        <f t="shared" si="10"/>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
         <v>28.1954887218045</v>
       </c>
-      <c r="D36" s="9">
-        <f t="shared" si="10"/>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
         <v>28.3077561177934</v>
       </c>
-      <c r="E36" s="9">
-        <f t="shared" si="10"/>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
         <v>29.0508544368952</v>
       </c>
-      <c r="F36" s="9">
-        <f t="shared" si="10"/>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
         <v>31.7038249130702</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G4" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>105</v>
       </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
